--- a/source_data/train.xlsx
+++ b/source_data/train.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31020" windowHeight="16340"/>
+    <workbookView windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14660,7 +14660,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14673,11 +14673,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14691,6 +14698,81 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -14706,100 +14788,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -14812,7 +14812,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14824,7 +14932,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14836,61 +14956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14902,37 +14980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14944,55 +14992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15021,17 +15021,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15062,6 +15056,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -15080,23 +15089,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15109,160 +15118,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15617,13 +15617,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4001"/>
+  <dimension ref="A1:C4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="B331" sqref="B331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="53.2019230769231" customWidth="1"/>
     <col min="2" max="2" width="103.519230769231" customWidth="1"/>
@@ -15637,12 +15637,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
